--- a/samples/data/mirai_mtd.xlsx
+++ b/samples/data/mirai_mtd.xlsx
@@ -2142,8 +2142,8 @@
   </sheetPr>
   <dimension ref="A1:R1006"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R21" activeCellId="0" sqref="R21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K10" activeCellId="0" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2247,8 +2247,8 @@
         <v>'tp_dst':'443'}, </v>
       </c>
       <c r="R2" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT("echo '$USR|",C2," ",E2," $TEMPO dport=",H2,"' |  $NC")</f>
-        <v>echo '$USR|udp 172.217.29.110 $TEMPO dport=443' |  $NC</v>
+        <f aca="false">_xlfn.CONCAT("echo '$USR|",C2," ",E2," $TEMPO dport=",H2,"' |  $NC; sleep $((2*$TEMPO));")</f>
+        <v>echo '$USR|udp 172.217.29.110 $TEMPO dport=443' |  $NC; sleep $((2*$TEMPO));</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2305,8 +2305,8 @@
         <v>'tp_dst':'27015'}, </v>
       </c>
       <c r="R3" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT("echo '$USR|",C3," ",E3," $TEMPO dport=",H3,"' |  $NC")</f>
-        <v>echo '$USR|vse 52.94.209.132 $TEMPO dport=27015' |  $NC</v>
+        <f aca="false">_xlfn.CONCAT("echo '$USR|",C3," ",E3," $TEMPO dport=",H3,"' |  $NC; sleep $((2*$TEMPO));")</f>
+        <v>echo '$USR|vse 52.94.209.132 $TEMPO dport=27015' |  $NC; sleep $((2*$TEMPO));</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2363,8 +2363,8 @@
         <v>'tp_dst':'123'}, </v>
       </c>
       <c r="R4" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT("echo '$USR|",C4," ",E4," $TEMPO dport=",H4,"' |  $NC")</f>
-        <v>echo '$USR|udpplain 130.149.17.8 $TEMPO dport=123' |  $NC</v>
+        <f aca="false">_xlfn.CONCAT("echo '$USR|",C4," ",E4," $TEMPO dport=",H4,"' |  $NC; sleep $((2*$TEMPO));")</f>
+        <v>echo '$USR|udpplain 130.149.17.8 $TEMPO dport=123' |  $NC; sleep $((2*$TEMPO));</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2421,8 +2421,8 @@
         <v>'tp_dst':'80'}, </v>
       </c>
       <c r="R5" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT("echo '$USR|",C5," ",E5," $TEMPO dport=",H5,"' |  $NC")</f>
-        <v>echo '$USR|syn 93.184.216.34 $TEMPO dport=80' |  $NC</v>
+        <f aca="false">_xlfn.CONCAT("echo '$USR|",C5," ",E5," $TEMPO dport=",H5,"' |  $NC; sleep $((2*$TEMPO));")</f>
+        <v>echo '$USR|syn 93.184.216.34 $TEMPO dport=80' |  $NC; sleep $((2*$TEMPO));</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2479,8 +2479,8 @@
         <v>'tp_dst':'11095'}, </v>
       </c>
       <c r="R6" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT("echo '$USR|",C6," ",E6," $TEMPO dport=",H6,"' |  $NC")</f>
-        <v>echo '$USR|ack 35.174.82.237 $TEMPO dport=11095' |  $NC</v>
+        <f aca="false">_xlfn.CONCAT("echo '$USR|",C6," ",E6," $TEMPO dport=",H6,"' |  $NC; sleep $((2*$TEMPO));")</f>
+        <v>echo '$USR|ack 35.174.82.237 $TEMPO dport=11095' |  $NC; sleep $((2*$TEMPO));</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2537,8 +2537,8 @@
         <v>'tp_dst':'443'}, </v>
       </c>
       <c r="R7" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT("echo '$USR|",C7," ",E7," $TEMPO dport=",H7,"' |  $NC")</f>
-        <v>echo '$USR|stomp 34.240.169.254 $TEMPO dport=443' |  $NC</v>
+        <f aca="false">_xlfn.CONCAT("echo '$USR|",C7," ",E7," $TEMPO dport=",H7,"' |  $NC; sleep $((2*$TEMPO));")</f>
+        <v>echo '$USR|stomp 34.240.169.254 $TEMPO dport=443' |  $NC; sleep $((2*$TEMPO));</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2595,8 +2595,8 @@
         <v>'tp_dst':'80'}, </v>
       </c>
       <c r="R8" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT("echo '$USR|",C8," ",E8," $TEMPO dport=",H8,"' |  $NC")</f>
-        <v>echo '$USR|http 176.32.98.203 $TEMPO dport=80' |  $NC</v>
+        <f aca="false">_xlfn.CONCAT("echo '$USR|",C8," ",E8," $TEMPO dport=",H8,"' |  $NC; sleep $((2*$TEMPO));")</f>
+        <v>echo '$USR|http 176.32.98.203 $TEMPO dport=80' |  $NC; sleep $((2*$TEMPO));</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2655,10 +2655,6 @@
         <f aca="false">_xlfn.CONCAT("'tp_dst':'",H10,"'}, ")</f>
         <v>'tp_dst':'23'}, </v>
       </c>
-      <c r="R10" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT("echo '$USR|",C10," ",E10," $TEMPO dport=",H10,"' |  $NC")</f>
-        <v>echo '$USR|scan_23_from local $TEMPO dport=23' |  $NC</v>
-      </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
@@ -2713,10 +2709,6 @@
         <f aca="false">_xlfn.CONCAT("'tp_dst':'",H11,"'}, ")</f>
         <v>'tp_dst':'2323'}, </v>
       </c>
-      <c r="R11" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT("echo '$USR|",C11," ",E11," $TEMPO dport=",H11,"' |  $NC")</f>
-        <v>echo '$USR|scan_2323_from local $TEMPO dport=2323' |  $NC</v>
-      </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
@@ -2771,10 +2763,6 @@
         <f aca="false">_xlfn.CONCAT("'tp_dst':'",H12,"'}, ")</f>
         <v>'tp_dst':'48101'}, </v>
       </c>
-      <c r="R12" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT("echo '$USR|",C12," ",E12," $TEMPO dport=",H12,"' |  $NC")</f>
-        <v>echo '$USR|scan_report_from 192.168.5.1 $TEMPO dport=48101' |  $NC</v>
-      </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
@@ -2829,10 +2817,6 @@
         <f aca="false">_xlfn.CONCAT("'tp_dst':'",H13,"'}, ")</f>
         <v>'tp_dst':'any'}, </v>
       </c>
-      <c r="R13" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT("echo '$USR|",C13," ",E13," $TEMPO dport=",H13,"' |  $NC")</f>
-        <v>echo '$USR|scan_23_to thing $TEMPO dport=any' |  $NC</v>
-      </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
@@ -2887,10 +2871,6 @@
         <f aca="false">_xlfn.CONCAT("'tp_dst':'",H14,"'}, ")</f>
         <v>'tp_dst':'any'}, </v>
       </c>
-      <c r="R14" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT("echo '$USR|",C14," ",E14," $TEMPO dport=",H14,"' |  $NC")</f>
-        <v>echo '$USR|scan_2323_to thing $TEMPO dport=any' |  $NC</v>
-      </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
@@ -2945,10 +2925,6 @@
         <f aca="false">_xlfn.CONCAT("'tp_dst':'",H15,"'}, ")</f>
         <v>'tp_dst':'any'}, </v>
       </c>
-      <c r="R15" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT("echo '$USR|",C15," ",E15," $TEMPO dport=",H15,"' |  $NC")</f>
-        <v>echo '$USR|scan_report_to thing $TEMPO dport=any' |  $NC</v>
-      </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F16" s="2"/>
@@ -3006,10 +2982,6 @@
         <f aca="false">_xlfn.CONCAT("'tp_dst':'",H17,"'}, ")</f>
         <v>'tp_dst':'any'}, </v>
       </c>
-      <c r="R17" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT("echo '$USR|",C17," ",E17," $TEMPO dport=",H17,"' |  $NC")</f>
-        <v>echo '$USR|infect_23_from 192.168.5.1 $TEMPO dport=any' |  $NC</v>
-      </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
@@ -3064,10 +3036,6 @@
         <f aca="false">_xlfn.CONCAT("'tp_dst':'",H18,"'}, ")</f>
         <v>'tp_dst':'any'}, </v>
       </c>
-      <c r="R18" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT("echo '$USR|",C18," ",E18," $TEMPO dport=",H18,"' |  $NC")</f>
-        <v>echo '$USR|infect_2323_from 192.168.5.1 $TEMPO dport=any' |  $NC</v>
-      </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
@@ -3122,10 +3090,6 @@
         <f aca="false">_xlfn.CONCAT("'tp_dst':'",H19,"'}, ")</f>
         <v>'tp_dst':'23'}, </v>
       </c>
-      <c r="R19" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT("echo '$USR|",C19," ",E19," $TEMPO dport=",H19,"' |  $NC")</f>
-        <v>echo '$USR|infect_23_to thing $TEMPO dport=23' |  $NC</v>
-      </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
@@ -3180,10 +3144,6 @@
         <f aca="false">_xlfn.CONCAT("'tp_dst':'",H20,"'}, ")</f>
         <v>'tp_dst':'2323'}, </v>
       </c>
-      <c r="R20" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT("echo '$USR|",C20," ",E20," $TEMPO dport=",H20,"' |  $NC")</f>
-        <v>echo '$USR|infect_2323_to thing $TEMPO dport=2323' |  $NC</v>
-      </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F21" s="2"/>
@@ -3241,10 +3201,6 @@
         <f aca="false">_xlfn.CONCAT("'tp_dst':'",H22,"'}, ")</f>
         <v>'tp_dst':'2030'}, </v>
       </c>
-      <c r="R22" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT("echo '$USR|",C22," ",E22," $TEMPO dport=",H22,"' |  $NC")</f>
-        <v>echo '$USR|cnc_socket_from 192.168.5.1 $TEMPO dport=2030' |  $NC</v>
-      </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
@@ -3298,10 +3254,6 @@
       <c r="P23" s="1" t="str">
         <f aca="false">_xlfn.CONCAT("'tp_dst':'",H23,"'}, ")</f>
         <v>'tp_dst':'any'}, </v>
-      </c>
-      <c r="R23" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT("echo '$USR|",C23," ",E23," $TEMPO dport=",H23,"' |  $NC")</f>
-        <v>echo '$USR|cnc_socket_to thing $TEMPO dport=any' |  $NC</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
